--- a/code/mantis_structure.xlsx
+++ b/code/mantis_structure.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessraissouni/Desktop/readAloud-valence/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalexand/github/readAloud-valence-dataset/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3A2C36-AD20-844C-96F5-E4453693D1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180D6E7F-256A-9842-AE67-74B62106CE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="820" windowWidth="22540" windowHeight="14240" xr2:uid="{2B2B4B6B-6404-2B4F-AE74-137AF8B0C781}"/>
+    <workbookView xWindow="7560" yWindow="1660" windowWidth="22540" windowHeight="14240" xr2:uid="{2B2B4B6B-6404-2B4F-AE74-137AF8B0C781}"/>
   </bookViews>
   <sheets>
-    <sheet name="neg-pos_mantis" sheetId="1" r:id="rId1"/>
+    <sheet name="mantis" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="589">
   <si>
     <t>passage</t>
   </si>
@@ -1793,6 +1793,12 @@
   </si>
   <si>
     <t>word_id</t>
+  </si>
+  <si>
+    <t>wordLogFrequencyHAL</t>
+  </si>
+  <si>
+    <t>wordOnset</t>
   </si>
 </sst>
 </file>
@@ -2144,19 +2150,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0C57D2-D46F-EF40-84E7-391394B2D014}">
-  <dimension ref="A1:C362"/>
+  <dimension ref="A1:E362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2166,8 +2173,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2178,7 +2191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2189,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2200,7 +2213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2211,7 +2224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2222,7 +2235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2233,7 +2246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2244,7 +2257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2255,7 +2268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2266,7 +2279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2277,7 +2290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2288,7 +2301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2299,7 +2312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2310,7 +2323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2321,7 +2334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
